--- a/prepdata/8m/kiboubi_8.xlsx
+++ b/prepdata/8m/kiboubi_8.xlsx
@@ -14,195 +14,105 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>date</t>
   </si>
   <si>
-    <t>お名前</t>
-  </si>
-  <si>
-    <t>8月10日</t>
-  </si>
-  <si>
-    <t>8月11日</t>
-  </si>
-  <si>
-    <t>8月12日</t>
-  </si>
-  <si>
-    <t>8月13日</t>
-  </si>
-  <si>
-    <t>8月14日</t>
-  </si>
-  <si>
-    <t>8月15日</t>
-  </si>
-  <si>
-    <t>8月16日</t>
-  </si>
-  <si>
-    <t>8月17日</t>
-  </si>
-  <si>
-    <t>8月18日</t>
-  </si>
-  <si>
-    <t>8月19日</t>
-  </si>
-  <si>
-    <t>8月1日</t>
-  </si>
-  <si>
-    <t>8月20日</t>
-  </si>
-  <si>
-    <t>8月21日</t>
-  </si>
-  <si>
-    <t>8月22日</t>
-  </si>
-  <si>
-    <t>8月23日</t>
-  </si>
-  <si>
-    <t>8月24日</t>
-  </si>
-  <si>
-    <t>8月25日</t>
-  </si>
-  <si>
-    <t>8月26日</t>
-  </si>
-  <si>
-    <t>8月27日</t>
-  </si>
-  <si>
-    <t>8月28日</t>
-  </si>
-  <si>
-    <t>8月29日</t>
-  </si>
-  <si>
-    <t>8月2日</t>
-  </si>
-  <si>
-    <t>8月30日</t>
-  </si>
-  <si>
-    <t>8月31日</t>
-  </si>
-  <si>
-    <t>8月3日</t>
-  </si>
-  <si>
-    <t>8月4日</t>
-  </si>
-  <si>
-    <t>8月5日</t>
-  </si>
-  <si>
-    <t>8月6日</t>
-  </si>
-  <si>
-    <t>8月7日</t>
-  </si>
-  <si>
-    <t>8月8日</t>
-  </si>
-  <si>
-    <t>8月9日</t>
-  </si>
-  <si>
-    <t>平井智大 ,林智史 ,勝俣敬寛 ,鈴木徹志郎 ,福原誠一郎 ,山田康博 ,小林佐紀子 ,津山頌章 ,里見　良輔</t>
-  </si>
-  <si>
-    <t>藤村 慶子 ,平井智大 ,林智史 ,勝俣敬寛 ,鈴木徹志郎 ,津山頌章 ,里見　良輔 ,川瀬　咲</t>
-  </si>
-  <si>
-    <t>藤村 慶子 ,平井智大 ,林智史 ,勝俣敬寛 ,鈴木徹志郎 ,津山頌章 ,野上創生 ,里見　良輔</t>
-  </si>
-  <si>
-    <t>平井智大 ,勝俣敬寛 ,茅島敦人 ,久冨木原健二 ,青木康浩 ,先崎光 ,野上創生 ,川瀬　咲</t>
-  </si>
-  <si>
-    <t>勝俣敬寛 ,茅島敦人 ,先崎光 ,野上創生 ,川瀬　咲</t>
-  </si>
-  <si>
-    <t>勝俣敬寛 ,先崎光 ,津山頌章 ,髙木菜々美 ,野上創生 ,川瀬　咲 ,門松賢</t>
-  </si>
-  <si>
-    <t>雪野　満 ,平井智大 ,太良史郎 ,川瀬　咲</t>
-  </si>
-  <si>
-    <t>藤村 慶子 ,平井智大 ,臼坂優希 ,里見　良輔 ,川瀬　咲</t>
-  </si>
-  <si>
-    <t>平井智大 ,片山充哉 ,太良史郎 ,川瀬　咲</t>
+    <t>name</t>
+  </si>
+  <si>
+    <t>林智史 ,吉村梨沙 ,勝俣敬寛 ,津山頌章 ,川瀬咲 ,門松賢</t>
+  </si>
+  <si>
+    <t>雪野満 ,平井智大 ,勝俣敬寛 ,福原誠一郎 ,津山頌章 ,太良史郎 ,川瀬咲</t>
+  </si>
+  <si>
+    <t>平井智大 ,勝俣敬寛 ,持丸貴生 ,福原誠一郎 ,小林佐紀子 ,津山頌章 ,入佐薫 ,川瀬咲</t>
+  </si>
+  <si>
+    <t>平井智大 ,勝俣敬寛 ,津山頌章 ,髙木菜々美 ,野上創生</t>
+  </si>
+  <si>
+    <t>平井智大 ,林智史 ,勝俣敬寛 ,茅島敦人 ,津山頌章 ,太良史郎 ,野上創生</t>
+  </si>
+  <si>
+    <t>平井智大 ,勝俣敬寛 ,茅島敦人 ,久冨木原健二 ,青木康浩 ,先崎光 ,野上創生 ,川瀬咲</t>
+  </si>
+  <si>
+    <t>平井智大 ,林智史 ,茅島敦人 ,福原誠一郎 ,先崎光 ,野上創生 ,川瀬咲</t>
+  </si>
+  <si>
+    <t>林智史 ,勝俣敬寛 ,先崎光 ,津山頌章 ,髙木菜々美 ,野上創生 ,川瀬咲 ,門松賢</t>
+  </si>
+  <si>
+    <t>雪野満 ,平井智大 ,勝俣敬寛 ,福原誠一郎 ,津山頌章 ,野上創生</t>
+  </si>
+  <si>
+    <t>平井智大 ,林智史 ,勝俣敬寛 ,鈴木徹志郎 ,福原誠一郎 ,山田康博 ,小林佐紀子 ,津山頌章 ,里見良輔</t>
+  </si>
+  <si>
+    <t>藤村慶子 ,平井智大 ,林智史 ,勝俣敬寛 ,鈴木徹志郎 ,津山頌章 ,里見良輔 ,川瀬咲</t>
+  </si>
+  <si>
+    <t>藤村慶子 ,平井智大 ,林智史 ,勝俣敬寛 ,鈴木徹志郎 ,津山頌章 ,野上創生 ,里見良輔</t>
+  </si>
+  <si>
+    <t>勝俣敬寛 ,茅島敦人 ,先崎光 ,野上創生 ,川瀬咲</t>
+  </si>
+  <si>
+    <t>勝俣敬寛 ,先崎光 ,津山頌章 ,髙木菜々美 ,野上創生 ,川瀬咲 ,門松賢</t>
+  </si>
+  <si>
+    <t>雪野満 ,平井智大 ,太良史郎 ,川瀬咲</t>
+  </si>
+  <si>
+    <t>藤村慶子 ,平井智大 ,臼坂優希 ,里見良輔 ,川瀬咲</t>
+  </si>
+  <si>
+    <t>平井智大 ,片山充哉 ,太良史郎 ,川瀬咲</t>
   </si>
   <si>
     <t>平井智大 ,林智史 ,勝俣敬寛 ,太良史郎 ,野上創生</t>
   </si>
   <si>
-    <t>林智史 ,吉村梨沙 ,勝俣敬寛 ,津山頌章 ,川瀬　咲 ,門松賢</t>
-  </si>
-  <si>
-    <t>平井智大 ,勝俣敬寛 ,茅島敦人 ,青木康浩 ,先崎光 ,野上創生 ,川瀬　咲</t>
-  </si>
-  <si>
-    <t>平井智大 ,林智史 ,茅島敦人 ,福原誠一郎 ,先崎光 ,野上創生 ,川瀬　咲</t>
-  </si>
-  <si>
-    <t>勝俣敬寛 ,先崎光 ,津山頌章 ,野上創生 ,川瀬　咲</t>
-  </si>
-  <si>
-    <t>雪野　満 ,平井智大 ,勝俣敬寛 ,津山頌章 ,野上創生 ,川瀬　咲</t>
-  </si>
-  <si>
-    <t>平井智大 ,鈴木徹志郎 ,小林佐紀子 ,臼坂優希 ,野上創生 ,里見　良輔 ,川瀬　咲</t>
-  </si>
-  <si>
-    <t>平井智大 ,鈴木徹志郎 ,片山充哉 ,野上創生 ,里見　良輔 ,川瀬　咲</t>
+    <t>平井智大 ,勝俣敬寛 ,茅島敦人 ,青木康浩 ,先崎光 ,野上創生 ,川瀬咲</t>
+  </si>
+  <si>
+    <t>勝俣敬寛 ,先崎光 ,津山頌章 ,野上創生 ,川瀬咲</t>
+  </si>
+  <si>
+    <t>雪野満 ,平井智大 ,勝俣敬寛 ,津山頌章 ,野上創生 ,川瀬咲</t>
+  </si>
+  <si>
+    <t>平井智大 ,鈴木徹志郎 ,小林佐紀子 ,臼坂優希 ,野上創生 ,里見良輔 ,川瀬咲</t>
+  </si>
+  <si>
+    <t>平井智大 ,鈴木徹志郎 ,片山充哉 ,野上創生 ,里見良輔 ,川瀬咲</t>
   </si>
   <si>
     <t>平井智大 ,林智史 ,勝俣敬寛 ,津山頌章 ,太良史郎 ,野上創生</t>
   </si>
   <si>
-    <t>平井智大 ,勝俣敬寛 ,茅島敦人 ,久冨木原健二 ,先崎光 ,野上創生 ,川瀬　咲</t>
-  </si>
-  <si>
-    <t>平井智大 ,林智史 ,勝俣敬寛 ,茅島敦人 ,福原誠一郎 ,先崎光 ,野上創生 ,川瀬　咲</t>
-  </si>
-  <si>
-    <t>雪野　満 ,平井智大 ,勝俣敬寛 ,福原誠一郎 ,津山頌章 ,太良史郎 ,川瀬　咲</t>
-  </si>
-  <si>
-    <t>平井智大 ,勝俣敬寛 ,福原誠一郎 ,津山頌章 ,野上創生 ,川瀬　咲</t>
-  </si>
-  <si>
-    <t>藤村 慶子 ,平井智大 ,鈴木徹志郎 ,福原誠一郎 ,小林佐紀子 ,野上創生 ,川瀬　咲</t>
-  </si>
-  <si>
-    <t>平井智大 ,勝俣敬寛 ,持丸貴生 ,福原誠一郎 ,小林佐紀子 ,津山頌章 ,入佐　薫 ,川瀬　咲</t>
-  </si>
-  <si>
-    <t>平井智大 ,勝俣敬寛 ,津山頌章 ,髙木菜々美 ,野上創生</t>
-  </si>
-  <si>
-    <t>平井智大 ,林智史 ,勝俣敬寛 ,茅島敦人 ,津山頌章 ,太良史郎 ,野上創生</t>
-  </si>
-  <si>
-    <t>林智史 ,勝俣敬寛 ,先崎光 ,津山頌章 ,髙木菜々美 ,野上創生 ,川瀬　咲 ,門松賢</t>
-  </si>
-  <si>
-    <t>雪野　満 ,平井智大 ,勝俣敬寛 ,福原誠一郎 ,津山頌章 ,野上創生</t>
+    <t>平井智大 ,勝俣敬寛 ,茅島敦人 ,久冨木原健二 ,先崎光 ,野上創生 ,川瀬咲</t>
+  </si>
+  <si>
+    <t>平井智大 ,林智史 ,勝俣敬寛 ,茅島敦人 ,福原誠一郎 ,先崎光 ,野上創生 ,川瀬咲</t>
+  </si>
+  <si>
+    <t>平井智大 ,勝俣敬寛 ,福原誠一郎 ,津山頌章 ,野上創生 ,川瀬咲</t>
+  </si>
+  <si>
+    <t>藤村慶子 ,平井智大 ,鈴木徹志郎 ,福原誠一郎 ,小林佐紀子 ,野上創生 ,川瀬咲</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -255,11 +165,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -572,341 +483,341 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2">
+        <v>45505</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2">
+        <v>45506</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2">
+        <v>45507</v>
+      </c>
+      <c r="C4" t="s">
         <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2">
+        <v>45508</v>
+      </c>
+      <c r="C5" t="s">
         <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2">
+        <v>45509</v>
+      </c>
+      <c r="C6" t="s">
         <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2">
+        <v>45510</v>
+      </c>
+      <c r="C7" t="s">
         <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2">
+        <v>45511</v>
+      </c>
+      <c r="C8" t="s">
         <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2">
+        <v>45512</v>
+      </c>
+      <c r="C9" t="s">
         <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2">
+        <v>45513</v>
+      </c>
+      <c r="C10" t="s">
         <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2">
+        <v>45514</v>
+      </c>
+      <c r="C11" t="s">
         <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2">
+        <v>45515</v>
+      </c>
+      <c r="C12" t="s">
         <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2">
+        <v>45516</v>
+      </c>
+      <c r="C13" t="s">
         <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>14</v>
+      <c r="B14" s="2">
+        <v>45517</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>15</v>
+      <c r="B15" s="2">
+        <v>45518</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>16</v>
+      <c r="B16" s="2">
+        <v>45519</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>17</v>
+      <c r="B17" s="2">
+        <v>45520</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>18</v>
+      <c r="B18" s="2">
+        <v>45521</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
-        <v>19</v>
+      <c r="B19" s="2">
+        <v>45522</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
-        <v>20</v>
+      <c r="B20" s="2">
+        <v>45523</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
-        <v>21</v>
+      <c r="B21" s="2">
+        <v>45524</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
-        <v>22</v>
+      <c r="B22" s="2">
+        <v>45525</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
-        <v>23</v>
+      <c r="B23" s="2">
+        <v>45526</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
-        <v>24</v>
+      <c r="B24" s="2">
+        <v>45527</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>25</v>
+      <c r="B25" s="2">
+        <v>45528</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
-        <v>26</v>
+      <c r="B26" s="2">
+        <v>45529</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
-        <v>27</v>
+      <c r="B27" s="2">
+        <v>45530</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
-        <v>28</v>
+      <c r="B28" s="2">
+        <v>45531</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
-        <v>29</v>
+      <c r="B29" s="2">
+        <v>45532</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
-        <v>30</v>
+      <c r="B30" s="2">
+        <v>45533</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
-        <v>31</v>
+      <c r="B31" s="2">
+        <v>45534</v>
       </c>
       <c r="C31" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
-        <v>32</v>
+      <c r="B32" s="2">
+        <v>45535</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
